--- a/medicine/Psychotrope/Figari_(AOC)/Figari_(AOC).xlsx
+++ b/medicine/Psychotrope/Figari_(AOC)/Figari_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le figari[3] ou vin de Corse Figari[3] est un vin produit autour de Figari, en Corse-du-Sud.
+Le figari ou vin de Corse Figari est un vin produit autour de Figari, en Corse-du-Sud.
 Il s'agit d'une des dénominations géographiques au sein de l'appellation vin de corse.
 </t>
         </is>
@@ -515,11 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antiquité
-La culture de la vigne y est attestée depuis au moins le Ve siècle av. J.-C.
-Moyen Âge
-Période moderne
-Période contemporaine
+          <t>Antiquité</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La culture de la vigne y est attestée depuis au moins le Ve siècle av. J.-C.
 </t>
         </is>
       </c>
@@ -545,10 +559,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Période contemporaine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -571,20 +596,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ici poussent les vignes les plus au sud de la Corse. 
-Orographie
-Le vignoble recouvre la plaine mi-alluvionnaire, mi-granitique décomposée de Figari.
-Géologie
-Climatologie
-Le vent s'engouffre par le golfe de Figari et souffle sur ce terroir sec et chaud, très propice aux cépages rouges.
-</t>
-        </is>
-      </c>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -607,21 +624,164 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ici poussent les vignes les plus au sud de la Corse. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Figari_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Figari_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Orographie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble recouvre la plaine mi-alluvionnaire, mi-granitique décomposée de Figari.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Figari_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Figari_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vent s'engouffre par le golfe de Figari et souffle sur ce terroir sec et chaud, très propice aux cépages rouges.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Figari_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Figari_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Présentation
-Le vignoble s'étend sur les communes de : Figari, Monacia-d'Aullène et Pianottoli-Caldarello.
-Encépagement
-Les vins blancs sont issus principalement du vermentino B (malvoisie de Corse), complété accessoirement par le biancu gentile B, la codivarta B, le genovese B et l'ugni blanc B (rossola).
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur les communes de : Figari, Monacia-d'Aullène et Pianottoli-Caldarello.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Figari_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Figari_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins blancs sont issus principalement du vermentino B (malvoisie de Corse), complété accessoirement par le biancu gentile B, la codivarta B, le genovese B et l'ugni blanc B (rossola).
 Les vins rouges et rosés son issus principalement du grenache N, du nielluccio N et du sciaccarello N, complétés accessoirement par de l'aléatico N, de la barbarossa N, du carcajolo nero N, du carignan N, du cinsault N, du mourvèdre N, de la syrah N et du vermentino B (malvoisie de Corse).
-Méthodes culturales et réglementations
-Structure des exploitations
-Terroir et vins
-Vin et gastronomie
-Commercialisation</t>
+</t>
         </is>
       </c>
     </row>
